--- a/DA/cap08-BasesDeDatos/BD3-ArtSAP_150401.xlsx
+++ b/DA/cap08-BasesDeDatos/BD3-ArtSAP_150401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>ICP-1</t>
   </si>
@@ -130,27 +130,6 @@
   </si>
   <si>
     <t>Intercompany Price</t>
-  </si>
-  <si>
-    <r>
-      <t>Numérico (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Sans Serif"/>
-      </rPr>
-      <t>¿Cadena de texto?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Sans Serif"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Cadena de texto</t>
@@ -247,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,11 +243,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="MS Sans Serif"/>
     </font>
     <font>
@@ -424,22 +398,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,16 +440,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
@@ -812,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>31</v>
@@ -831,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="13">
         <v>7</v>
@@ -841,11 +815,11 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="17" t="s">
         <v>13</v>
@@ -861,11 +835,11 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="17" t="s">
         <v>14</v>
@@ -881,7 +855,7 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -891,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13">
         <v>255</v>
@@ -901,7 +875,7 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -911,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13">
         <v>255</v>
@@ -921,7 +895,7 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -931,20 +905,20 @@
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,14 +927,14 @@
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>35</v>
@@ -975,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13">
         <v>10.199999999999999</v>
@@ -984,7 +958,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>36</v>
@@ -997,14 +971,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>34</v>
@@ -1017,14 +991,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>35</v>
@@ -1039,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13">
         <v>10.199999999999999</v>
@@ -1048,7 +1022,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>36</v>
@@ -1061,14 +1035,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>34</v>
@@ -1081,14 +1055,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>35</v>
@@ -1101,14 +1075,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="13">
         <v>10.199999999999999</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>36</v>
@@ -1121,22 +1095,22 @@
         <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,16 +1119,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>16</v>
@@ -1167,12 +1141,12 @@
         <v>27</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>17</v>
@@ -1185,12 +1159,12 @@
         <v>21</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>28</v>
@@ -1203,17 +1177,17 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="19"/>
     </row>
@@ -1223,19 +1197,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="H21" s="19"/>
     </row>
@@ -1245,13 +1219,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="19"/>
     </row>
@@ -1265,7 +1239,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="20"/>
     </row>
@@ -1274,15 +1248,15 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
